--- a/Excel/FightItemConfig.xlsx
+++ b/Excel/FightItemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -34,6 +34,30 @@
     <t>解锁条件</t>
   </si>
   <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>移速</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>走路类型(地面1，飞行2)</t>
+  </si>
+  <si>
+    <t>召唤物的数量</t>
+  </si>
+  <si>
+    <t>召唤物间隔时间</t>
+  </si>
+  <si>
     <t>FightItemName</t>
   </si>
   <si>
@@ -49,6 +73,30 @@
     <t>UnlockCondition</t>
   </si>
   <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>defence</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>PetNumber</t>
+  </si>
+  <si>
+    <t>PetInterval</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -88,10 +136,25 @@
     <t>#怪</t>
   </si>
   <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>Monster1</t>
+  </si>
+  <si>
     <t>怪物1</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
+    <t>低</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>森林龙</t>
+  </si>
+  <si>
+    <t>Monster2</t>
   </si>
   <si>
     <t>怪物2</t>
@@ -100,7 +163,115 @@
     <t>怪物3</t>
   </si>
   <si>
+    <t>Monster3</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
     <t>怪物4</t>
+  </si>
+  <si>
+    <t>Monster4</t>
+  </si>
+  <si>
+    <t>#召唤物</t>
+  </si>
+  <si>
+    <t>召唤物1</t>
+  </si>
+  <si>
+    <t>我是召唤物1</t>
+  </si>
+  <si>
+    <t>召唤物2</t>
+  </si>
+  <si>
+    <t>我是召唤物2</t>
+  </si>
+  <si>
+    <t>召唤物3</t>
+  </si>
+  <si>
+    <t>我是召唤物3</t>
+  </si>
+  <si>
+    <t>召唤物4</t>
+  </si>
+  <si>
+    <t>我是召唤物4</t>
+  </si>
+  <si>
+    <t>召唤物5</t>
+  </si>
+  <si>
+    <t>Monster5</t>
+  </si>
+  <si>
+    <t>我是召唤物5</t>
+  </si>
+  <si>
+    <t>召唤物6</t>
+  </si>
+  <si>
+    <t>Monster6</t>
+  </si>
+  <si>
+    <t>我是召唤物6</t>
+  </si>
+  <si>
+    <t>召唤物7</t>
+  </si>
+  <si>
+    <t>Monster7</t>
+  </si>
+  <si>
+    <t>我是召唤物7</t>
+  </si>
+  <si>
+    <t>召唤物8</t>
+  </si>
+  <si>
+    <t>Monster8</t>
+  </si>
+  <si>
+    <t>我是召唤物8</t>
+  </si>
+  <si>
+    <t>召唤物9</t>
+  </si>
+  <si>
+    <t>Monster9</t>
+  </si>
+  <si>
+    <t>我是召唤物9</t>
+  </si>
+  <si>
+    <t>召唤物10</t>
+  </si>
+  <si>
+    <t>Monster10</t>
+  </si>
+  <si>
+    <t>我是召唤物10</t>
+  </si>
+  <si>
+    <t>召唤物11</t>
+  </si>
+  <si>
+    <t>Monster11</t>
+  </si>
+  <si>
+    <t>我是召唤物11</t>
+  </si>
+  <si>
+    <t>召唤物12</t>
+  </si>
+  <si>
+    <t>Monster12</t>
+  </si>
+  <si>
+    <t>我是召唤物12</t>
   </si>
 </sst>
 </file>
@@ -113,7 +284,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +296,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -272,12 +449,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -580,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,36 +775,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,98 +811,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +913,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J16"/>
+  <dimension ref="A3:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1092,9 +1285,12 @@
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10">
+    <row r="3" ht="14.25" spans="3:16">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,56 +1309,122 @@
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="3:10">
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="3:16">
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1171,145 +1433,798 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="1">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
         <v>3001</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="1">
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
         <v>3004</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9">
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>3007</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10">
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>3010</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11">
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>3013</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
       <c r="C13">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
       <c r="C14">
-        <v>4002</v>
+        <v>6002</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
       <c r="C15">
-        <v>4003</v>
+        <v>6003</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
       <c r="C16">
-        <v>4004</v>
+        <v>6004</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
-        <v>25</v>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="C18">
+        <v>9001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19">
+        <v>9002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20">
+        <v>9003</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
+      <c r="C21">
+        <v>9004</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="C22">
+        <v>9005</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="C23">
+        <v>9006</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
+      <c r="C24">
+        <v>9007</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="C25">
+        <v>9008</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16">
+      <c r="C26">
+        <v>9009</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="C27">
+        <v>9010</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="C28">
+        <v>9011</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16">
+      <c r="C29">
+        <v>9012</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FightItemConfig.xlsx
+++ b/Excel/FightItemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -112,25 +112,40 @@
     <t>ArrowTalent</t>
   </si>
   <si>
+    <t>Tower11</t>
+  </si>
+  <si>
     <t>范围塔</t>
   </si>
   <si>
     <t>CannonTalent</t>
   </si>
   <si>
+    <t>Tower21</t>
+  </si>
+  <si>
     <t>激光塔</t>
   </si>
   <si>
     <t>LaserTalent</t>
   </si>
   <si>
+    <t>Tower31</t>
+  </si>
+  <si>
     <t>燃烧塔</t>
   </si>
   <si>
     <t>BurnTalent</t>
   </si>
   <si>
+    <t>Tower41</t>
+  </si>
+  <si>
     <t>tatata</t>
+  </si>
+  <si>
+    <t>Tower51</t>
   </si>
   <si>
     <t>#怪</t>
@@ -905,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +934,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1276,7 +1294,7 @@
   <dimension ref="A3:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1284,7 +1302,8 @@
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
     <col min="9" max="9" width="16.75" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="13.25" customWidth="1"/>
@@ -1309,7 +1328,7 @@
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J3" t="s">
@@ -1353,7 +1372,7 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
@@ -1397,7 +1416,7 @@
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J5" t="s">
@@ -1433,7 +1452,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3"/>
@@ -1450,7 +1469,9 @@
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
@@ -1472,15 +1493,17 @@
         <v>3004</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
@@ -1502,15 +1525,17 @@
         <v>3007</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1532,15 +1557,17 @@
         <v>3010</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1562,7 +1589,7 @@
         <v>3013</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1570,7 +1597,9 @@
       <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1587,7 +1616,7 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="3:14">
@@ -1595,7 +1624,7 @@
         <v>6001</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1604,22 +1633,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1630,7 +1659,7 @@
         <v>6002</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1639,22 +1668,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1665,7 +1694,7 @@
         <v>6003</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1674,22 +1703,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1700,7 +1729,7 @@
         <v>6004</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1709,22 +1738,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1732,7 +1761,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:16">
@@ -1740,7 +1769,7 @@
         <v>9001</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1748,23 +1777,23 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>41</v>
+      <c r="G18" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1781,7 +1810,7 @@
         <v>9002</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1789,23 +1818,23 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
+      <c r="G19" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1822,7 +1851,7 @@
         <v>9003</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1830,23 +1859,23 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>49</v>
+      <c r="G20" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1863,7 +1892,7 @@
         <v>9004</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1871,23 +1900,23 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>52</v>
+      <c r="G21" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1904,7 +1933,7 @@
         <v>9005</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1912,23 +1941,23 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>63</v>
+      <c r="G22" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1945,7 +1974,7 @@
         <v>9006</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1953,23 +1982,23 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>66</v>
+      <c r="G23" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1986,7 +2015,7 @@
         <v>9007</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1994,23 +2023,23 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>69</v>
+      <c r="G24" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2027,7 +2056,7 @@
         <v>9008</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -2035,23 +2064,23 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>72</v>
+      <c r="G25" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2068,7 +2097,7 @@
         <v>9009</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2076,23 +2105,23 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>75</v>
+      <c r="G26" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2109,7 +2138,7 @@
         <v>9010</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2117,23 +2146,23 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>78</v>
+      <c r="G27" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2150,7 +2179,7 @@
         <v>9011</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2158,23 +2187,23 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>81</v>
+      <c r="G28" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2191,7 +2220,7 @@
         <v>9012</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2199,23 +2228,23 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>84</v>
+      <c r="G29" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>1</v>

--- a/Excel/FightItemConfig.xlsx
+++ b/Excel/FightItemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Monster1</t>
   </si>
   <si>
-    <t>怪物1</t>
+    <t>我是德鲁伊</t>
   </si>
   <si>
     <t>低</t>
@@ -172,22 +172,28 @@
     <t>Monster2</t>
   </si>
   <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>怪物3</t>
+    <t>我是森林龙</t>
+  </si>
+  <si>
+    <t>熊骑兵</t>
   </si>
   <si>
     <t>Monster3</t>
   </si>
   <si>
+    <t>我是熊骑兵</t>
+  </si>
+  <si>
     <t>高</t>
   </si>
   <si>
-    <t>怪物4</t>
+    <t>狼骑兵</t>
   </si>
   <si>
     <t>Monster4</t>
+  </si>
+  <si>
+    <t>我是狼骑兵</t>
   </si>
   <si>
     <t>#召唤物</t>
@@ -1294,7 +1300,7 @@
   <dimension ref="A3:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1706,13 +1712,13 @@
         <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
         <v>48</v>
@@ -1729,7 +1735,7 @@
         <v>6004</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1738,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
         <v>56</v>
       </c>
-      <c r="J16" t="s">
-        <v>55</v>
-      </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L16" t="s">
         <v>48</v>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="3:16">
@@ -1769,7 +1775,7 @@
         <v>9001</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1781,7 +1787,7 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
@@ -1810,7 +1816,7 @@
         <v>9002</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1822,7 +1828,7 @@
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -1851,7 +1857,7 @@
         <v>9003</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1863,7 +1869,7 @@
         <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
@@ -1892,7 +1898,7 @@
         <v>9004</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1901,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
         <v>49</v>
@@ -1933,7 +1939,7 @@
         <v>9005</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1942,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
@@ -1974,7 +1980,7 @@
         <v>9006</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1983,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
@@ -2015,7 +2021,7 @@
         <v>9007</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -2024,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
@@ -2056,7 +2062,7 @@
         <v>9008</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -2065,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
@@ -2097,7 +2103,7 @@
         <v>9009</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2106,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
         <v>49</v>
@@ -2138,7 +2144,7 @@
         <v>9010</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2147,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s">
         <v>49</v>
@@ -2179,7 +2185,7 @@
         <v>9011</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2188,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
@@ -2220,7 +2226,7 @@
         <v>9012</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2229,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
